--- a/target/classes/com/capsuleCrm/TestData/CapsuleCRMTestData.xlsx
+++ b/target/classes/com/capsuleCrm/TestData/CapsuleCRMTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\eclipse-workspace\NaveenCodingChallenge_Part3\src\main\java\com\capsuleCrm\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BAC60-251B-490D-BF56-8E7D69BE4A50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6915FB-017F-4CA2-8AD4-E6916E7E9B9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B51C4FEE-A64E-4E11-A3F5-9476212D8C2A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Title</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>~7689034789</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,8 +574,8 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2">
-        <v>7689034789</v>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>

--- a/target/classes/com/capsuleCrm/TestData/CapsuleCRMTestData.xlsx
+++ b/target/classes/com/capsuleCrm/TestData/CapsuleCRMTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\eclipse-workspace\NaveenCodingChallenge_Part3\src\main\java\com\capsuleCrm\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6915FB-017F-4CA2-8AD4-E6916E7E9B9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311619D1-AADF-4262-B9C6-5279A3CCC9EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B51C4FEE-A64E-4E11-A3F5-9476212D8C2A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Title</t>
   </si>
@@ -131,6 +131,30 @@
   </si>
   <si>
     <t>~7689034789</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>TaskDescription</t>
+  </si>
+  <si>
+    <t>DueDays</t>
+  </si>
+  <si>
+    <t>AssigneeName</t>
+  </si>
+  <si>
+    <t>TrackName</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>description Test</t>
+  </si>
+  <si>
+    <t>Akhila Bandiki</t>
   </si>
 </sst>
 </file>
@@ -154,12 +178,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,10 +205,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -497,7 +529,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E1" sqref="E1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,34 +556,34 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -611,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A328525A-15E9-433A-9810-80A2E9D9E94D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,23 +654,43 @@
     <col min="1" max="1" width="23.453125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -650,6 +702,21 @@
       </c>
       <c r="D2" t="s">
         <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
